--- a/experiments/2022_scientific_reports/results/statistics/stats_cortisol_response_mist.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_cortisol_response_mist.xlsx
@@ -551,10 +551,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.8252981901168823</v>
+        <v>0.8252980709075928</v>
       </c>
       <c r="D3">
-        <v>0.0184347964823246</v>
+        <v>0.01843472011387348</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.9165206551551819</v>
+        <v>0.916520893573761</v>
       </c>
       <c r="D4">
-        <v>0.258390486240387</v>
+        <v>0.2583920061588287</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.9031654596328735</v>
+        <v>0.9031656980514526</v>
       </c>
       <c r="D6">
-        <v>0.1477978527545929</v>
+        <v>0.1477988213300705</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="K4">
-        <v>0.04134352676188857</v>
+        <v>0.04134352676188853</v>
       </c>
       <c r="L4" t="s">
         <v>29</v>

--- a/experiments/2022_scientific_reports/results/statistics/stats_cortisol_response_mist.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_cortisol_response_mist.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="normality" sheetId="2" r:id="rId2"/>
-    <sheet name="pairwise_ttests" sheetId="3" r:id="rId3"/>
+    <sheet name="pairwise_tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -108,7 +108,7 @@
     <t>1.869</t>
   </si>
   <si>
-    <t>Pairwise t-Tests</t>
+    <t>Pairwise Tests</t>
   </si>
 </sst>
 </file>
